--- a/results/pvalue_SIDER_all_enzyme_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.758</t>
+          <t>4.655</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.356</t>
+          <t>5.349</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.302</t>
+          <t>3.181</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.519</t>
+          <t>21.515</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.374</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.511</t>
+          <t>19.509</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.634</t>
+          <t>21.631</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.874</t>
+          <t>11.181</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
